--- a/Расчеты/Книга1.xlsx
+++ b/Расчеты/Книга1.xlsx
@@ -343,7 +343,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -562,11 +562,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82896162"/>
-        <c:axId val="7430071"/>
+        <c:axId val="60668210"/>
+        <c:axId val="95100034"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82896162"/>
+        <c:axId val="60668210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,12 +612,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7430071"/>
+        <c:crossAx val="95100034"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7430071"/>
+        <c:axId val="95100034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82896162"/>
+        <c:crossAx val="60668210"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -704,7 +704,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>676800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -731,10 +731,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T20" activeCellId="0" sqref="T20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S31" activeCellId="0" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -1615,7 +1615,7 @@
         <v>342.727058823529</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>6</v>
       </c>
@@ -1675,15 +1675,23 @@
         <v>52.4665294117647</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T17" s="0" t="e">
+        <f aca="false">AVERAGE(C17:S17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
+      <c r="T18" s="0" t="e">
+        <f aca="false">AVERAGE(C18:S18)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1744,7 +1752,8 @@
         <v>0.2</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>0.37</v>
+        <f aca="false">AVERAGE(C19:S19)</f>
+        <v>0.265882352941176</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,85 +1812,650 @@
         <v>51.639</v>
       </c>
       <c r="T20" s="0" t="n">
-        <v>28.165</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">AVERAGE(C20:S20)</f>
+        <v>40.6614117647059</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">AVERAGE(C21:S21)</f>
+        <v>1.16647058823529</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <v>69.035</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>69.644</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>76.883</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>77.144</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>74.861</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>68.604</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>76.019</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>75.287</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>64.424</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>71.553</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>73.391</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>75.746</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>71.131</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>59.205</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>71.331</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">AVERAGE(C22:S22)</f>
+        <v>71.8310588235294</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">AVERAGE(C23:S23)</f>
+        <v>6.72058823529412</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="0" t="n">
+        <v>101.77</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>93.201</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>92.226</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>98.624</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>99.936</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>97.782</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>97.369</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>101.99</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>99.629</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>96.488</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>107.17</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>102.67</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>97.881</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>97.397</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>97.518</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">AVERAGE(C24:S24)</f>
+        <v>99.3588823529412</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="0" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>18.77</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">AVERAGE(C25:S25)</f>
+        <v>19.2323529411765</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="0" t="n">
+        <v>120.57</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>113.96</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>114.71</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>117.56</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>115.62</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>120.62</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>118.44</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>114.74</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>117.67</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>116.83</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>119.47</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>114.34</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>115.73</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>118.12</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>119.63</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>112.06</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>119.89</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">AVERAGE(C26:S26)</f>
+        <v>117.056470588235</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="0" t="n">
+        <v>44.73</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>50.35</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>46.49</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>46.44</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>48.28</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>48.59</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>46.89</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>48.04</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>47.28</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>49.23</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">AVERAGE(C27:S27)</f>
+        <v>47.7588235294118</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="0" t="n">
+        <v>119.24</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>110.98</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>110.88</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>105.93</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>114.74</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>114.85</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>110.49</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>109.77</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>113.74</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>111.04</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>110.84</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>112.24</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>112.82</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>106.36</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>108.35</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">AVERAGE(C28:S28)</f>
+        <v>111.774705882353</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="0" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>87.69</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>85.34</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>87.44</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>84.73</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>87.68</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>83.72</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>84.33</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>88.79</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>84.99</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>87.54</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <v>87.93</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>83.9</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>87.46</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>86.58</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <f aca="false">AVERAGE(C29:S29)</f>
+        <v>86.4241176470588</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>118.81</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>122.07</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>119.14</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>122.95</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>118.82</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>124.43</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>118.66</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>123.53</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>117.33</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>122.58</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>119.48</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>118.48</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>124.17</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>119.11</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <v>120.33</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">AVERAGE(C30:S30)</f>
+        <v>120.581764705882</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T31" s="0" t="e">
+        <f aca="false">AVERAGE(C31:S31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="T32" s="0" t="e">
+        <f aca="false">AVERAGE(C32:S32)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T33" s="0" t="e">
+        <f aca="false">AVERAGE(C33:S33)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Расчеты/Книга1.xlsx
+++ b/Расчеты/Книга1.xlsx
@@ -343,7 +343,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -562,11 +562,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60668210"/>
-        <c:axId val="95100034"/>
+        <c:axId val="56681449"/>
+        <c:axId val="29934929"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60668210"/>
+        <c:axId val="56681449"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,12 +612,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95100034"/>
+        <c:crossAx val="29934929"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95100034"/>
+        <c:axId val="29934929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +663,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60668210"/>
+        <c:crossAx val="56681449"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -731,10 +731,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S31" activeCellId="0" sqref="S31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -2438,24 +2438,120 @@
       <c r="B31" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="T31" s="0" t="e">
+      <c r="C31" s="0" t="n">
+        <v>145.15</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>148.72</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>143.02</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>147.91</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>144.65</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>149.19</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>146.42</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>141.39</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>144.28</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>149.81</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>142.03</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>143.1</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>142.63</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>146.88</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>149.08</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>146.96</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <v>140.77</v>
+      </c>
+      <c r="T31" s="0" t="n">
         <f aca="false">AVERAGE(C31:S31)</f>
-        <v>#DIV/0!</v>
+        <v>145.411176470588</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="T32" s="0" t="e">
+      <c r="C32" s="0" t="n">
+        <v>124.02</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>121.04</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>125.87</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>121.7</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>124.45</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>120.66</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>122.95</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>127.32</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>124.77</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>120.16</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>126.75</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>126.21</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>126.21</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>122.56</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>120.75</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>122.49</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <v>127.88</v>
+      </c>
+      <c r="T32" s="0" t="n">
         <f aca="false">AVERAGE(C32:S32)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T33" s="0" t="e">
-        <f aca="false">AVERAGE(C33:S33)</f>
-        <v>#DIV/0!</v>
+        <v>123.87</v>
       </c>
     </row>
   </sheetData>

--- a/Расчеты/Книга1.xlsx
+++ b/Расчеты/Книга1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t xml:space="preserve">NB = 10</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">NB = 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB = 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NB = 200</t>
   </si>
 </sst>
 </file>
@@ -202,7 +208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,6 +275,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -343,7 +353,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -562,11 +572,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56681449"/>
-        <c:axId val="29934929"/>
+        <c:axId val="47560464"/>
+        <c:axId val="32048048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56681449"/>
+        <c:axId val="47560464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,12 +622,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29934929"/>
+        <c:crossAx val="32048048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29934929"/>
+        <c:axId val="32048048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56681449"/>
+        <c:crossAx val="47560464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -731,10 +741,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N55" activeCellId="0" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -2554,11 +2564,947 @@
         <v>123.87</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>49.719</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>42.388</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>34.098</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>35.764</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>38.996</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>44.024</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>52.01</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>43.926</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>48.328</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>25.243</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>39.577</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>49.372</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>30.753</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>26.929</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>50.334</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>38.708</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>42.045</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>76.778</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>72.474</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>74.503</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>77.888</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>78.858</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>72.33</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>75.424</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>81.589</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>62.617</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>82.267</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>81.431</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>76.484</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>78.025</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <v>77.47</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>70.518</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <v>73.846</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <v>76.381</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>110.35</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>117.33</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>110.12</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>108.34</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>117.58</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>117.23</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>110.34</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>107.51</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>114.43</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>117.53</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>113.65</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>103.58</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>112.42</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <v>111.72</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>114.99</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>16.15</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>16.63</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>16.17</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>134.24</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>138.94</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>139.34</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>135.45</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>139.74</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>142.43</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>140.1</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>134.76</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>144.07</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>139.2</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>138.95</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>141.28</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>135.5</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>139.6</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>39.43</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>35.11</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>41.06</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <v>38.68</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>38.11</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>39.69</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>37.46</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>141.78</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>135.15</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>135.28</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>151.91</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>140.99</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>146.33</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>132.94</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>129.91</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>137.75</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>140.33</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>144.35</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>137.89</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>139.97</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>142.39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>65.62</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>68.06</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>68.65</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>66.59</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>67.39</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>70.38</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>65.45</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <v>67.49</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>65.02</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>68.15</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>68.39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>153.05</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>158.23</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>157.11</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>156.43</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>154.59</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>152.09</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>149.24</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>148.01</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>159.16</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <v>154.37</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>160.22</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <v>147.76</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>152.87</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>148.33</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>152.32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>114.66</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>118.63</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>114.42</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>156.99</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>151.75</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>157.33</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>39.659</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>41.296</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>44.08</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>49.944</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>47.766</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>36.847</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>39.576</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>46.648</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>38.183</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>39.887</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>33.254</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <v>45.124</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>49.317</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <v>49.904</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <v>48.609</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <v>38.63</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <v>43.689</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="A49:B50"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Расчеты/Книга1.xlsx
+++ b/Расчеты/Книга1.xlsx
@@ -353,7 +353,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -572,11 +572,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47560464"/>
-        <c:axId val="32048048"/>
+        <c:axId val="61096342"/>
+        <c:axId val="97091419"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47560464"/>
+        <c:axId val="61096342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,12 +622,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32048048"/>
+        <c:crossAx val="97091419"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32048048"/>
+        <c:axId val="97091419"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47560464"/>
+        <c:crossAx val="61096342"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -743,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N55" activeCellId="0" sqref="N55"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -3427,11 +3427,113 @@
       <c r="B53" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C53" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C54" s="0" t="n">
+        <v>79.775</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>79.955</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>83.491</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>79.651</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>73.124</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <v>91.935</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>85.455</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>78.749</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>76.222</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>82.911</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>76.151</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <v>79.907</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <v>75.899</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <v>77.324</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <v>79.353</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <v>84.477</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <v>71.479</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -3440,11 +3542,113 @@
       <c r="B55" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C55" s="0" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <v>5.62</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C56" s="0" t="n">
+        <v>115.27</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>108.08</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>120.96</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>118.1</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>114.7</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>121.05</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>120.89</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <v>121.67</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>111.86</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>113.29</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>117.25</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <v>120.06</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <v>121.48</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <v>119.09</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <v>115.04</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <v>118.63</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -3453,11 +3657,113 @@
       <c r="B57" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C57" s="0" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <v>15.55</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C58" s="0" t="n">
+        <v>154.08</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>153.36</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>145.94</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>140.85</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>147.12</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>145.38</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>149.6</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>148.4</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>149.33</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>150.16</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>153.31</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <v>150.32</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <v>142.84</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <v>144.85</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <v>148.64</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <v>144.73</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -3466,11 +3772,113 @@
       <c r="B59" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="C59" s="0" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>38.49</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>36.21</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>36.09</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>36.23</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>37.09</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>36.48</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>36.65</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <v>36.19</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <v>37.78</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <v>36.42</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <v>35.95</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C60" s="0" t="n">
+        <v>147.03</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>138.9</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>145.65</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>138.59</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>147.29</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>147.81</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>147.24</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>143.82</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>146.21</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>145.53</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>149.35</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>147.4</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>144.98</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>141.19</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>146.46</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <v>144.77</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <v>148.38</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -3479,10 +3887,112 @@
       <c r="B61" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C61" s="0" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>69.93</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>63.59</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>65.49</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>62.66</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>71.66</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>68.24</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>71.68</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>68.32</v>
+      </c>
+      <c r="N61" s="0" t="n">
+        <v>64.83</v>
+      </c>
+      <c r="O61" s="0" t="n">
+        <v>64.33</v>
+      </c>
+      <c r="P61" s="0" t="n">
+        <v>67.76</v>
+      </c>
+      <c r="Q61" s="0" t="n">
+        <v>66.57</v>
+      </c>
+      <c r="R61" s="0" t="n">
+        <v>71.03</v>
+      </c>
+      <c r="S61" s="0" t="n">
+        <v>66.23</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>156.88</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>148.98</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>163.83</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>159.07</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>166.26</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>159.24</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>152.93</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>145.37</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>152.67</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>145.33</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>152.48</v>
+      </c>
+      <c r="N62" s="0" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="O62" s="0" t="n">
+        <v>161.93</v>
+      </c>
+      <c r="P62" s="0" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="Q62" s="0" t="n">
+        <v>156.49</v>
+      </c>
+      <c r="R62" s="0" t="n">
+        <v>146.66</v>
+      </c>
+      <c r="S62" s="0" t="n">
+        <v>157.29</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Расчеты/Книга1.xlsx
+++ b/Расчеты/Книга1.xlsx
@@ -353,7 +353,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -547,36 +547,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>40.6614117647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>71.8310588235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>99.3588823529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>117.0564705882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>111.7747058824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>120.5817647059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>123.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61096342"/>
-        <c:axId val="97091419"/>
+        <c:axId val="18187122"/>
+        <c:axId val="30353716"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61096342"/>
+        <c:axId val="18187122"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,12 +622,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97091419"/>
+        <c:crossAx val="30353716"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97091419"/>
+        <c:axId val="30353716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +673,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61096342"/>
+        <c:crossAx val="18187122"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -706,15 +706,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>261000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:colOff>135720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>295560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:colOff>551520</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>198360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -722,8 +722,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="39123000" y="361080"/>
-        <a:ext cx="11216880" cy="5590440"/>
+        <a:off x="39219120" y="3842640"/>
+        <a:ext cx="11812680" cy="5590440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -741,17 +741,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L42" activeCellId="0" sqref="L42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z43" activeCellId="0" sqref="Z43:Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
   <cols>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="14.6039603960396"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="12.1336633663366"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="13.3613861386139"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="16.4381188118812"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="14.7054455445545"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -845,7 +847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
@@ -910,8 +912,17 @@
       <c r="W4" s="0" t="n">
         <v>19.67205882</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X4" s="0" t="n">
+        <v>40.6614117647</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>40.7184705882</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>43.0831176471</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
@@ -979,8 +990,17 @@
       <c r="W5" s="0" t="n">
         <v>31.28058824</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X5" s="0" t="n">
+        <v>71.8310588235</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>75.8166470588</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>79.7563529412</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
@@ -1045,8 +1065,17 @@
       <c r="W6" s="0" t="n">
         <v>42.81123529</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X6" s="0" t="n">
+        <v>99.3588823529</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>112.46</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>117.4841176471</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
@@ -1114,8 +1143,17 @@
       <c r="W7" s="0" t="n">
         <v>47.73694118</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X7" s="0" t="n">
+        <v>117.0564705882</v>
+      </c>
+      <c r="Y7" s="0" t="n">
+        <v>138.77</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>147.9711764706</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>6</v>
       </c>
@@ -1180,8 +1218,17 @@
       <c r="W8" s="0" t="n">
         <v>49.80188235</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X8" s="0" t="n">
+        <v>111.7747058824</v>
+      </c>
+      <c r="Y8" s="0" t="n">
+        <v>139.3394117647</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>145.3294117647</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -1249,6 +1296,15 @@
       <c r="W9" s="0" t="n">
         <v>51.55770588</v>
       </c>
+      <c r="X9" s="0" t="n">
+        <v>120.5817647059</v>
+      </c>
+      <c r="Y9" s="0" t="n">
+        <v>153.78117664706</v>
+      </c>
+      <c r="Z9" s="0" t="n">
+        <v>155.2858823529</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
@@ -1315,6 +1371,12 @@
       <c r="W10" s="0" t="n">
         <v>52.46652941</v>
       </c>
+      <c r="X10" s="0" t="n">
+        <v>123.87</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>155.3566666667</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -1690,18 +1752,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="T17" s="0" t="e">
-        <f aca="false">AVERAGE(C17:S17)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="T18" s="0" t="e">
-        <f aca="false">AVERAGE(C18:S18)</f>
-        <v>#DIV/0!</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2632,6 +2686,10 @@
       <c r="S35" s="0" t="n">
         <v>0.25</v>
       </c>
+      <c r="T35" s="0" t="n">
+        <f aca="false">AVERAGE(C35:S35)</f>
+        <v>0.268823529411765</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
@@ -2688,6 +2746,10 @@
       <c r="S36" s="0" t="n">
         <v>42.045</v>
       </c>
+      <c r="T36" s="0" t="n">
+        <f aca="false">AVERAGE(C36:S36)</f>
+        <v>40.7184705882353</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -2747,6 +2809,10 @@
       <c r="S37" s="0" t="n">
         <v>1.09</v>
       </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">AVERAGE(C37:S37)</f>
+        <v>1.10411764705882</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
@@ -2803,6 +2869,10 @@
       <c r="S38" s="0" t="n">
         <v>76.381</v>
       </c>
+      <c r="T38" s="0" t="n">
+        <f aca="false">AVERAGE(C38:S38)</f>
+        <v>75.8166470588236</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -2862,6 +2932,10 @@
       <c r="S39" s="0" t="n">
         <v>5.8</v>
       </c>
+      <c r="T39" s="0" t="n">
+        <f aca="false">AVERAGE(C39:S39)</f>
+        <v>5.94117647058824</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
@@ -2918,6 +2992,10 @@
       <c r="S40" s="0" t="n">
         <v>114.99</v>
       </c>
+      <c r="T40" s="0" t="n">
+        <f aca="false">AVERAGE(C40:S40)</f>
+        <v>112.46</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -2977,6 +3055,10 @@
       <c r="S41" s="0" t="n">
         <v>16.05</v>
       </c>
+      <c r="T41" s="0" t="n">
+        <f aca="false">AVERAGE(C41:S41)</f>
+        <v>16.2217647058824</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
@@ -3033,6 +3115,10 @@
       <c r="S42" s="0" t="n">
         <v>139.6</v>
       </c>
+      <c r="T42" s="0" t="n">
+        <f aca="false">AVERAGE(C42:S42)</f>
+        <v>138.77</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -3092,6 +3178,10 @@
       <c r="S43" s="0" t="n">
         <v>37.46</v>
       </c>
+      <c r="T43" s="0" t="n">
+        <f aca="false">AVERAGE(C43:S43)</f>
+        <v>38.3323529411765</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
@@ -3148,6 +3238,10 @@
       <c r="S44" s="0" t="n">
         <v>142.39</v>
       </c>
+      <c r="T44" s="0" t="n">
+        <f aca="false">AVERAGE(C44:S44)</f>
+        <v>139.339411764706</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -3207,6 +3301,10 @@
       <c r="S45" s="0" t="n">
         <v>68.39</v>
       </c>
+      <c r="T45" s="0" t="n">
+        <f aca="false">AVERAGE(C45:S45)</f>
+        <v>67.7864705882353</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
@@ -3263,6 +3361,10 @@
       <c r="S46" s="0" t="n">
         <v>152.32</v>
       </c>
+      <c r="T46" s="0" t="n">
+        <f aca="false">AVERAGE(C46:S46)</f>
+        <v>153.781176470588</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -3280,6 +3382,10 @@
       <c r="E47" s="0" t="n">
         <v>114.42</v>
       </c>
+      <c r="T47" s="0" t="n">
+        <f aca="false">AVERAGE(C47:S47)</f>
+        <v>115.903333333333</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
@@ -3294,6 +3400,10 @@
       <c r="E48" s="0" t="n">
         <v>157.33</v>
       </c>
+      <c r="T48" s="0" t="n">
+        <f aca="false">AVERAGE(C48:S48)</f>
+        <v>155.356666666667</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="17" t="s">
@@ -3363,6 +3473,10 @@
       <c r="S51" s="0" t="n">
         <v>0.24</v>
       </c>
+      <c r="T51" s="0" t="n">
+        <f aca="false">AVERAGE(C51:S51)</f>
+        <v>0.244117647058823</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
@@ -3419,6 +3533,10 @@
       <c r="S52" s="0" t="n">
         <v>43.689</v>
       </c>
+      <c r="T52" s="0" t="n">
+        <f aca="false">AVERAGE(C52:S52)</f>
+        <v>43.0831176470588</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -3478,6 +3596,10 @@
       <c r="S53" s="0" t="n">
         <v>1.17</v>
       </c>
+      <c r="T53" s="0" t="n">
+        <f aca="false">AVERAGE(C53:S53)</f>
+        <v>1.05</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
@@ -3534,6 +3656,10 @@
       <c r="S54" s="0" t="n">
         <v>71.479</v>
       </c>
+      <c r="T54" s="0" t="n">
+        <f aca="false">AVERAGE(C54:S54)</f>
+        <v>79.7563529411765</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -3593,6 +3719,10 @@
       <c r="S55" s="0" t="n">
         <v>5.62</v>
       </c>
+      <c r="T55" s="0" t="n">
+        <f aca="false">AVERAGE(C55:S55)</f>
+        <v>5.68235294117647</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
@@ -3649,6 +3779,10 @@
       <c r="S56" s="0" t="n">
         <v>118.63</v>
       </c>
+      <c r="T56" s="0" t="n">
+        <f aca="false">AVERAGE(C56:S56)</f>
+        <v>117.484117647059</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -3708,6 +3842,10 @@
       <c r="S57" s="0" t="n">
         <v>15.55</v>
       </c>
+      <c r="T57" s="0" t="n">
+        <f aca="false">AVERAGE(C57:S57)</f>
+        <v>15.1270588235294</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
@@ -3764,6 +3902,10 @@
       <c r="S58" s="0" t="n">
         <v>144.73</v>
       </c>
+      <c r="T58" s="0" t="n">
+        <f aca="false">AVERAGE(C58:S58)</f>
+        <v>147.971176470588</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -3823,6 +3965,10 @@
       <c r="S59" s="0" t="n">
         <v>35.95</v>
       </c>
+      <c r="T59" s="0" t="n">
+        <f aca="false">AVERAGE(C59:S59)</f>
+        <v>36.7188235294118</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
@@ -3879,6 +4025,10 @@
       <c r="S60" s="0" t="n">
         <v>148.38</v>
       </c>
+      <c r="T60" s="0" t="n">
+        <f aca="false">AVERAGE(C60:S60)</f>
+        <v>145.329411764706</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -3938,6 +4088,10 @@
       <c r="S61" s="0" t="n">
         <v>66.23</v>
       </c>
+      <c r="T61" s="0" t="n">
+        <f aca="false">AVERAGE(C61:S61)</f>
+        <v>67.1917647058824</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
@@ -3993,6 +4147,10 @@
       </c>
       <c r="S62" s="0" t="n">
         <v>157.29</v>
+      </c>
+      <c r="T62" s="0" t="n">
+        <f aca="false">AVERAGE(C62:S62)</f>
+        <v>155.285882352941</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
